--- a/_data/aa_propensities.xlsx
+++ b/_data/aa_propensities.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t xml:space="preserve">AA</t>
   </si>
@@ -44,6 +44,15 @@
   </si>
   <si>
     <t xml:space="preserve">codon_table</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sub_nonsub_JMD_N</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sub_nonsub_TMD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sub_nonsub_JMD_C</t>
   </si>
   <si>
     <t xml:space="preserve">A</t>
@@ -200,7 +209,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -213,12 +222,12 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -226,6 +235,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -356,10 +369,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H48"/>
+  <dimension ref="A1:K48"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G31" activeCellId="0" sqref="G31"/>
+      <selection pane="topLeft" activeCell="I1" activeCellId="0" sqref="I1:K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -370,9 +383,12 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="19.6"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="17.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="19.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="19.06"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="17.24"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="19.6"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -394,13 +410,22 @@
       <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B2" s="6" t="n">
         <v>0.07483</v>
@@ -420,13 +445,22 @@
       <c r="G2" s="6" t="n">
         <v>0.045757</v>
       </c>
-      <c r="H2" s="0" t="n">
+      <c r="H2" s="1" t="n">
         <v>4</v>
+      </c>
+      <c r="I2" s="7" t="n">
+        <v>0.07037</v>
+      </c>
+      <c r="J2" s="7" t="n">
+        <v>0.116309</v>
+      </c>
+      <c r="K2" s="7" t="n">
+        <v>0.040148</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B3" s="6" t="n">
         <v>0.002721</v>
@@ -446,13 +480,22 @@
       <c r="G3" s="6" t="n">
         <v>0.041517</v>
       </c>
-      <c r="H3" s="0" t="n">
+      <c r="H3" s="1" t="n">
         <v>2</v>
+      </c>
+      <c r="I3" s="7" t="n">
+        <v>0.006173</v>
+      </c>
+      <c r="J3" s="7" t="n">
+        <v>0.031697</v>
+      </c>
+      <c r="K3" s="7" t="n">
+        <v>0.029648</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="5" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B4" s="6" t="n">
         <v>0.05102</v>
@@ -472,13 +515,22 @@
       <c r="G4" s="6" t="n">
         <v>0.022717</v>
       </c>
-      <c r="H4" s="0" t="n">
+      <c r="H4" s="1" t="n">
         <v>2</v>
+      </c>
+      <c r="I4" s="7" t="n">
+        <v>0.056173</v>
+      </c>
+      <c r="J4" s="7" t="n">
+        <v>0.001789</v>
+      </c>
+      <c r="K4" s="7" t="n">
+        <v>0.022236</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="5" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B5" s="6" t="n">
         <v>0.088435</v>
@@ -498,13 +550,22 @@
       <c r="G5" s="6" t="n">
         <v>0.033209</v>
       </c>
-      <c r="H5" s="0" t="n">
+      <c r="H5" s="1" t="n">
         <v>2</v>
+      </c>
+      <c r="I5" s="7" t="n">
+        <v>0.093827</v>
+      </c>
+      <c r="J5" s="7" t="n">
+        <v>0.001789</v>
+      </c>
+      <c r="K5" s="7" t="n">
+        <v>0.046943</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="5" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B6" s="6" t="n">
         <v>0.023129</v>
@@ -524,13 +585,22 @@
       <c r="G6" s="6" t="n">
         <v>0.028888</v>
       </c>
-      <c r="H6" s="0" t="n">
+      <c r="H6" s="1" t="n">
         <v>2</v>
+      </c>
+      <c r="I6" s="7" t="n">
+        <v>0.018519</v>
+      </c>
+      <c r="J6" s="7" t="n">
+        <v>0.05547</v>
+      </c>
+      <c r="K6" s="7" t="n">
+        <v>0.01853</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="5" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B7" s="6" t="n">
         <v>0.078231</v>
@@ -550,13 +620,22 @@
       <c r="G7" s="6" t="n">
         <v>0.047585</v>
       </c>
-      <c r="H7" s="0" t="n">
+      <c r="H7" s="1" t="n">
         <v>4</v>
+      </c>
+      <c r="I7" s="7" t="n">
+        <v>0.076543</v>
+      </c>
+      <c r="J7" s="7" t="n">
+        <v>0.080266</v>
+      </c>
+      <c r="K7" s="7" t="n">
+        <v>0.056208</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="5" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B8" s="6" t="n">
         <v>0.020408</v>
@@ -576,13 +655,22 @@
       <c r="G8" s="6" t="n">
         <v>0.036001</v>
       </c>
-      <c r="H8" s="0" t="n">
+      <c r="H8" s="1" t="n">
         <v>2</v>
+      </c>
+      <c r="I8" s="7" t="n">
+        <v>0.02037</v>
+      </c>
+      <c r="J8" s="7" t="n">
+        <v>0.00409</v>
+      </c>
+      <c r="K8" s="7" t="n">
+        <v>0.042619</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B9" s="6" t="n">
         <v>0.027211</v>
@@ -602,13 +690,22 @@
       <c r="G9" s="6" t="n">
         <v>0.027272</v>
       </c>
-      <c r="H9" s="0" t="n">
+      <c r="H9" s="1" t="n">
         <v>3</v>
+      </c>
+      <c r="I9" s="7" t="n">
+        <v>0.024691</v>
+      </c>
+      <c r="J9" s="7" t="n">
+        <v>0.147239</v>
+      </c>
+      <c r="K9" s="7" t="n">
+        <v>0.016677</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="5" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B10" s="6" t="n">
         <v>0.047619</v>
@@ -628,13 +725,22 @@
       <c r="G10" s="6" t="n">
         <v>0.142155</v>
       </c>
-      <c r="H10" s="0" t="n">
+      <c r="H10" s="1" t="n">
         <v>2</v>
+      </c>
+      <c r="I10" s="7" t="n">
+        <v>0.049383</v>
+      </c>
+      <c r="J10" s="7" t="n">
+        <v>0.002556</v>
+      </c>
+      <c r="K10" s="7" t="n">
+        <v>0.176652</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="5" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B11" s="6" t="n">
         <v>0.066667</v>
@@ -654,13 +760,22 @@
       <c r="G11" s="6" t="n">
         <v>0.067275</v>
       </c>
-      <c r="H11" s="0" t="n">
+      <c r="H11" s="1" t="n">
         <v>6</v>
+      </c>
+      <c r="I11" s="7" t="n">
+        <v>0.054321</v>
+      </c>
+      <c r="J11" s="7" t="n">
+        <v>0.217536</v>
+      </c>
+      <c r="K11" s="7" t="n">
+        <v>0.041384</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="5" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B12" s="6" t="n">
         <v>0.017007</v>
@@ -680,13 +795,22 @@
       <c r="G12" s="6" t="n">
         <v>0.016766</v>
       </c>
-      <c r="H12" s="0" t="n">
+      <c r="H12" s="1" t="n">
         <v>1</v>
+      </c>
+      <c r="I12" s="7" t="n">
+        <v>0.011728</v>
+      </c>
+      <c r="J12" s="7" t="n">
+        <v>0.02684</v>
+      </c>
+      <c r="K12" s="7" t="n">
+        <v>0.013589</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="5" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B13" s="6" t="n">
         <v>0.040816</v>
@@ -706,13 +830,22 @@
       <c r="G13" s="6" t="n">
         <v>0.029357</v>
       </c>
-      <c r="H13" s="0" t="n">
+      <c r="H13" s="1" t="n">
         <v>2</v>
+      </c>
+      <c r="I13" s="7" t="n">
+        <v>0.045062</v>
+      </c>
+      <c r="J13" s="7" t="n">
+        <v>0.000511</v>
+      </c>
+      <c r="K13" s="7" t="n">
+        <v>0.024707</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B14" s="6" t="n">
         <v>0.079592</v>
@@ -732,13 +865,22 @@
       <c r="G14" s="6" t="n">
         <v>0.035875</v>
       </c>
-      <c r="H14" s="0" t="n">
+      <c r="H14" s="1" t="n">
         <v>4</v>
+      </c>
+      <c r="I14" s="7" t="n">
+        <v>0.087037</v>
+      </c>
+      <c r="J14" s="7" t="n">
+        <v>0.013804</v>
+      </c>
+      <c r="K14" s="7" t="n">
+        <v>0.027177</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="5" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B15" s="6" t="n">
         <v>0.055782</v>
@@ -758,13 +900,22 @@
       <c r="G15" s="6" t="n">
         <v>0.056591</v>
       </c>
-      <c r="H15" s="0" t="n">
+      <c r="H15" s="1" t="n">
         <v>2</v>
+      </c>
+      <c r="I15" s="7" t="n">
+        <v>0.057407</v>
+      </c>
+      <c r="J15" s="7" t="n">
+        <v>0.002045</v>
+      </c>
+      <c r="K15" s="7" t="n">
+        <v>0.059296</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B16" s="6" t="n">
         <v>0.041497</v>
@@ -784,13 +935,22 @@
       <c r="G16" s="6" t="n">
         <v>0.178283</v>
       </c>
-      <c r="H16" s="0" t="n">
+      <c r="H16" s="1" t="n">
         <v>6</v>
+      </c>
+      <c r="I16" s="7" t="n">
+        <v>0.046914</v>
+      </c>
+      <c r="J16" s="7" t="n">
+        <v>0.002045</v>
+      </c>
+      <c r="K16" s="7" t="n">
+        <v>0.218036</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="5" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B17" s="6" t="n">
         <v>0.121769</v>
@@ -810,13 +970,22 @@
       <c r="G17" s="6" t="n">
         <v>0.067697</v>
       </c>
-      <c r="H17" s="0" t="n">
+      <c r="H17" s="1" t="n">
         <v>6</v>
+      </c>
+      <c r="I17" s="7" t="n">
+        <v>0.125926</v>
+      </c>
+      <c r="J17" s="7" t="n">
+        <v>0.037577</v>
+      </c>
+      <c r="K17" s="7" t="n">
+        <v>0.072884</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="5" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B18" s="6" t="n">
         <v>0.080272</v>
@@ -836,13 +1005,22 @@
       <c r="G18" s="6" t="n">
         <v>0.034661</v>
       </c>
-      <c r="H18" s="0" t="n">
+      <c r="H18" s="1" t="n">
         <v>4</v>
+      </c>
+      <c r="I18" s="7" t="n">
+        <v>0.07963</v>
+      </c>
+      <c r="J18" s="7" t="n">
+        <v>0.033998</v>
+      </c>
+      <c r="K18" s="7" t="n">
+        <v>0.038295</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="5" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B19" s="6" t="n">
         <v>0.059184</v>
@@ -862,13 +1040,22 @@
       <c r="G19" s="6" t="n">
         <v>0.0299</v>
       </c>
-      <c r="H19" s="0" t="n">
+      <c r="H19" s="1" t="n">
         <v>4</v>
+      </c>
+      <c r="I19" s="7" t="n">
+        <v>0.056173</v>
+      </c>
+      <c r="J19" s="7" t="n">
+        <v>0.179959</v>
+      </c>
+      <c r="K19" s="7" t="n">
+        <v>0.014206</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="5" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B20" s="6" t="n">
         <v>0.008163</v>
@@ -888,13 +1075,22 @@
       <c r="G20" s="6" t="n">
         <v>0.021086</v>
       </c>
-      <c r="H20" s="0" t="n">
+      <c r="H20" s="1" t="n">
         <v>1</v>
+      </c>
+      <c r="I20" s="7" t="n">
+        <v>0.004938</v>
+      </c>
+      <c r="J20" s="7" t="n">
+        <v>0.01636</v>
+      </c>
+      <c r="K20" s="7" t="n">
+        <v>0.009265</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="5" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B21" s="6" t="n">
         <v>0.015646</v>
@@ -914,90 +1110,99 @@
       <c r="G21" s="6" t="n">
         <v>0.037407</v>
       </c>
-      <c r="H21" s="0" t="n">
+      <c r="H21" s="1" t="n">
         <v>2</v>
       </c>
+      <c r="I21" s="7" t="n">
+        <v>0.014815</v>
+      </c>
+      <c r="J21" s="7" t="n">
+        <v>0.028119</v>
+      </c>
+      <c r="K21" s="7" t="n">
+        <v>0.031501</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C22" s="7"/>
+      <c r="C22" s="8"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C23" s="7"/>
+      <c r="C23" s="8"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C24" s="7"/>
+      <c r="C24" s="8"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C25" s="7"/>
+      <c r="C25" s="8"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C26" s="7"/>
+      <c r="C26" s="8"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C27" s="7"/>
+      <c r="C27" s="8"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C28" s="7"/>
+      <c r="C28" s="8"/>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C29" s="6"/>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C30" s="7"/>
+      <c r="C30" s="8"/>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C31" s="7"/>
+      <c r="C31" s="8"/>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C32" s="7"/>
+      <c r="C32" s="8"/>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C33" s="7"/>
+      <c r="C33" s="8"/>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C34" s="7"/>
+      <c r="C34" s="8"/>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C35" s="7"/>
+      <c r="C35" s="8"/>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C36" s="7"/>
+      <c r="C36" s="8"/>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C37" s="7"/>
+      <c r="C37" s="8"/>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C38" s="7"/>
+      <c r="C38" s="8"/>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C39" s="7"/>
+      <c r="C39" s="8"/>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C40" s="7"/>
+      <c r="C40" s="8"/>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C41" s="7"/>
+      <c r="C41" s="8"/>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C42" s="7"/>
+      <c r="C42" s="8"/>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C43" s="7"/>
+      <c r="C43" s="8"/>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C44" s="7"/>
+      <c r="C44" s="8"/>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C45" s="7"/>
+      <c r="C45" s="8"/>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C46" s="7"/>
+      <c r="C46" s="8"/>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C47" s="7"/>
+      <c r="C47" s="8"/>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C48" s="7"/>
+      <c r="C48" s="8"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
